--- a/data/trans_dic/P36B02_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.9273050654919819</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8817686956980523</v>
+        <v>0.8817686956980525</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9541608459244403</v>
@@ -685,7 +685,7 @@
         <v>0.955606562560785</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9040042457752013</v>
+        <v>0.9040042457752012</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.9520220965273912</v>
@@ -697,7 +697,7 @@
         <v>0.9414250503722</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.8932146092986937</v>
+        <v>0.8932146092986938</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.93079316132086</v>
+        <v>0.9323825772089551</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9300660897759041</v>
+        <v>0.930018313266168</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9045645364567898</v>
+        <v>0.9059221038741289</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.850813111125991</v>
+        <v>0.8479115137924238</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.937678089845421</v>
+        <v>0.9367630485043529</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9374975177756302</v>
+        <v>0.9383839742035017</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9379460500433475</v>
+        <v>0.9374297767671994</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8823917720463665</v>
+        <v>0.8839769925634778</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9396893167640338</v>
+        <v>0.9410806038052103</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9411567879878278</v>
+        <v>0.9396193371786113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9268226637768103</v>
+        <v>0.9268924661420855</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8743111612837893</v>
+        <v>0.8756458504021424</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9635426075857597</v>
+        <v>0.9644421630012495</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9655802705793932</v>
+        <v>0.9657160997905679</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9462380385533841</v>
+        <v>0.9464403615325998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9053147709945584</v>
+        <v>0.9067192942805935</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9678006854735502</v>
+        <v>0.9687132874817161</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9709369187041129</v>
+        <v>0.9704268699708639</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9702158937043646</v>
+        <v>0.9703090813780214</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.922558731288231</v>
+        <v>0.9225688192468839</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9628206082462234</v>
+        <v>0.9630678126984392</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9649512417115095</v>
+        <v>0.964172505785589</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9542474573002232</v>
+        <v>0.9532635314304186</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9078659426566876</v>
+        <v>0.9087624792835786</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.9317197031709704</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9120147759759066</v>
+        <v>0.9120147759759067</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9264133456858487</v>
@@ -833,7 +833,7 @@
         <v>0.9232774124758129</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9057721745186768</v>
+        <v>0.9057721745186766</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8997536900466411</v>
+        <v>0.9014411299787336</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.931257231091723</v>
+        <v>0.9303173002270422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8946581527332095</v>
+        <v>0.8955716641670433</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8795717145331597</v>
+        <v>0.8769601648277509</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9145571539943765</v>
+        <v>0.914026266157145</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9313678138781344</v>
+        <v>0.9292271830146273</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9139477823800395</v>
+        <v>0.9150007389478499</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.895499999028351</v>
+        <v>0.8956530396820979</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9135315693723264</v>
+        <v>0.9132278702136327</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9352879384999084</v>
+        <v>0.9358310040050299</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9107430224777446</v>
+        <v>0.9111029774525781</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8905809593541522</v>
+        <v>0.8906386078793754</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.937291941649197</v>
+        <v>0.9390023096801234</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9607565391888442</v>
+        <v>0.9610643939266421</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9324366740617525</v>
+        <v>0.9317991047554377</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9198517784319061</v>
+        <v>0.9201106411455509</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9489943989099013</v>
+        <v>0.9485285349879485</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9599229193905454</v>
+        <v>0.9588094637552125</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9458764553914162</v>
+        <v>0.9456420583027342</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9259775631918663</v>
+        <v>0.9247912856242767</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9379389021516835</v>
+        <v>0.936894835680754</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9567991552028838</v>
+        <v>0.9555293081300343</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9353733458069095</v>
+        <v>0.9352720281878841</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9177695558317605</v>
+        <v>0.9180053073302079</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8864175830437668</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8136404794743357</v>
+        <v>0.8136404794743356</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9389402581677251</v>
@@ -957,7 +957,7 @@
         <v>0.9338215465476353</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.8517216931872084</v>
+        <v>0.8517216931872083</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.9318741043548094</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9018883244213222</v>
+        <v>0.9020612800024841</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8682565655849299</v>
+        <v>0.8678678863294345</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8627936964312716</v>
+        <v>0.8615327184053049</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7776298717946293</v>
+        <v>0.7812325157136193</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9192897373529473</v>
+        <v>0.9167373780103081</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9051213714526682</v>
+        <v>0.9063923776227704</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9132120076913954</v>
+        <v>0.9151144451394186</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8264848582167523</v>
+        <v>0.8281474315566438</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9176640485866312</v>
+        <v>0.9176567731783328</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8971465625882861</v>
+        <v>0.8962017202190227</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8949138738087946</v>
+        <v>0.8958931720284</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8138737550330825</v>
+        <v>0.8135453223511485</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9437276820826589</v>
+        <v>0.9437187688559487</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9164270656183264</v>
+        <v>0.9175375804629171</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9092514552332749</v>
+        <v>0.9083442541339238</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8424305588533691</v>
+        <v>0.8428822188806492</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9544094829206695</v>
+        <v>0.9544550293281207</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9450900150553903</v>
+        <v>0.9452184948591265</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9481589364941477</v>
+        <v>0.9498515742164936</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8729785989876266</v>
+        <v>0.8725189227149546</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9443003443104983</v>
+        <v>0.9446368284427182</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9272743329641646</v>
+        <v>0.9269245651782033</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.92364731614759</v>
+        <v>0.9237104834431114</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.850243058709919</v>
+        <v>0.8523959765418264</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9059750106415784</v>
+        <v>0.9067746036669686</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9172655981383134</v>
+        <v>0.9167414730449717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9205701011442072</v>
+        <v>0.9209582408662975</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8555697854246153</v>
+        <v>0.8555290633201065</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9337311073886275</v>
+        <v>0.9329640769510085</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9196331485598086</v>
+        <v>0.9201559960787806</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.929412399469174</v>
+        <v>0.9288657870546504</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.869648505195837</v>
+        <v>0.8692782702367625</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9247479255370636</v>
+        <v>0.9249588006849728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.922964296555396</v>
+        <v>0.9252336077778088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.929795478348641</v>
+        <v>0.9314984689818409</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8697712364685627</v>
+        <v>0.8700165343932532</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9403880568882392</v>
+        <v>0.9403372094438242</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.950678028151932</v>
+        <v>0.9512071947430784</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9521532174000783</v>
+        <v>0.9540211341086923</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9033065193478813</v>
+        <v>0.9032580930368755</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9599348455282626</v>
+        <v>0.9610025283794793</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9506981667109122</v>
+        <v>0.9511804704609668</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9583504546993843</v>
+        <v>0.9588853295327919</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9030062433421119</v>
+        <v>0.9014676033528776</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9470999114543683</v>
+        <v>0.9470799078854675</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9463474973155291</v>
+        <v>0.947433910772294</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9518264849292828</v>
+        <v>0.9515495957032581</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8969663268572355</v>
+        <v>0.8973015840547566</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9405541055985142</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.8896405523825281</v>
+        <v>0.8896405523825283</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9360886533320603</v>
@@ -1241,7 +1241,7 @@
         <v>0.9292952572281248</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.8809234717780878</v>
+        <v>0.8809234717780879</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9193922347015256</v>
+        <v>0.9183905642118716</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9240131857381787</v>
+        <v>0.923304948838276</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9065339769979773</v>
+        <v>0.9066579647860566</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8593856237352596</v>
+        <v>0.8583036144114378</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9348332449852381</v>
+        <v>0.9345997695830968</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9327160412204542</v>
+        <v>0.9329762086041228</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9331931897812016</v>
+        <v>0.9323592392575535</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8805629845986034</v>
+        <v>0.8801141115018345</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9300440490684013</v>
+        <v>0.9303036556572525</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.931228176628615</v>
+        <v>0.9308239186155596</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9222877870970893</v>
+        <v>0.9226385573346354</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8733532619272564</v>
+        <v>0.8730156327073653</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9380101242385006</v>
+        <v>0.9362691151065636</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9424960034336447</v>
+        <v>0.9409200994019693</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.926331129188978</v>
+        <v>0.9270995234120417</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8848797962498405</v>
+        <v>0.8848742394802361</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9506658952196159</v>
+        <v>0.9511167037688082</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9491461774348536</v>
+        <v>0.9488756013443324</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9489431041359669</v>
+        <v>0.94822016739912</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8992724755102113</v>
+        <v>0.8976410528258651</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9420879043686058</v>
+        <v>0.9423792449104453</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9435758011996198</v>
+        <v>0.9428569902130046</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9354727953366554</v>
+        <v>0.9351287688346068</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8891553239784059</v>
+        <v>0.8889815300828143</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>645982</v>
+        <v>647085</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>654273</v>
+        <v>654239</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>609593</v>
+        <v>610508</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>587665</v>
+        <v>585661</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>645452</v>
+        <v>644822</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>653483</v>
+        <v>654101</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>629347</v>
+        <v>629000</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>646548</v>
+        <v>647709</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1298992</v>
+        <v>1300915</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1318108</v>
+        <v>1315955</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1246476</v>
+        <v>1246570</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1244522</v>
+        <v>1246421</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>668710</v>
+        <v>669334</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>679256</v>
+        <v>679351</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>637677</v>
+        <v>637814</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>625310</v>
+        <v>626280</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>666187</v>
+        <v>666815</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>676792</v>
+        <v>676436</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>650999</v>
+        <v>651062</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>675979</v>
+        <v>675986</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1330968</v>
+        <v>1331309</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1351433</v>
+        <v>1350342</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1283360</v>
+        <v>1282036</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1292285</v>
+        <v>1293561</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>865383</v>
+        <v>867006</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>947971</v>
+        <v>947014</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>913859</v>
+        <v>914792</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>922598</v>
+        <v>919858</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>885651</v>
+        <v>885137</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>960432</v>
+        <v>958225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>953168</v>
+        <v>954266</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>958935</v>
+        <v>959099</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1763292</v>
+        <v>1762706</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1916548</v>
+        <v>1917661</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1880115</v>
+        <v>1880858</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1887813</v>
+        <v>1887936</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>901487</v>
+        <v>903132</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>977999</v>
+        <v>978313</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>952449</v>
+        <v>951797</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>964848</v>
+        <v>965120</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>919000</v>
+        <v>918548</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>989878</v>
+        <v>988730</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>986467</v>
+        <v>986222</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>991572</v>
+        <v>990302</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1810403</v>
+        <v>1808388</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1960628</v>
+        <v>1958026</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1930961</v>
+        <v>1930752</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1945447</v>
+        <v>1945946</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>611939</v>
+        <v>612057</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>657811</v>
+        <v>657517</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>653488</v>
+        <v>652533</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>624494</v>
+        <v>627387</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>627607</v>
+        <v>625865</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>700705</v>
+        <v>701689</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>716881</v>
+        <v>718375</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>671320</v>
+        <v>672670</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1249141</v>
+        <v>1249131</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1374230</v>
+        <v>1372783</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1380333</v>
+        <v>1381844</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1314676</v>
+        <v>1314146</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>640328</v>
+        <v>640322</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>694306</v>
+        <v>695148</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>688675</v>
+        <v>687988</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>676533</v>
+        <v>676896</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>651584</v>
+        <v>651615</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>731647</v>
+        <v>731747</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>744315</v>
+        <v>745644</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>709085</v>
+        <v>708711</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1285399</v>
+        <v>1285857</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1420379</v>
+        <v>1419844</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1424652</v>
+        <v>1424750</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1373425</v>
+        <v>1376902</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>852831</v>
+        <v>853583</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>868491</v>
+        <v>867995</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>860429</v>
+        <v>860792</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>847067</v>
+        <v>847027</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>969784</v>
+        <v>968988</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>965591</v>
+        <v>966140</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>969068</v>
+        <v>968498</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>973172</v>
+        <v>972758</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1830957</v>
+        <v>1831374</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1842974</v>
+        <v>1847506</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1838519</v>
+        <v>1841886</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1834438</v>
+        <v>1834955</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>885225</v>
+        <v>885177</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>900127</v>
+        <v>900628</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>889949</v>
+        <v>891695</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>894329</v>
+        <v>894282</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>997000</v>
+        <v>998109</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>998208</v>
+        <v>998715</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>999240</v>
+        <v>999798</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1010501</v>
+        <v>1008779</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1875212</v>
+        <v>1875173</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1889666</v>
+        <v>1891835</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1882082</v>
+        <v>1881534</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1891795</v>
+        <v>1892502</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3011617</v>
+        <v>3008336</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3165544</v>
+        <v>3163118</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3070837</v>
+        <v>3071257</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3036005</v>
+        <v>3032182</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3157927</v>
+        <v>3157139</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3313366</v>
+        <v>3314291</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3304974</v>
+        <v>3302020</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3288779</v>
+        <v>3287103</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6188258</v>
+        <v>6189986</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>6498343</v>
+        <v>6495522</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6390553</v>
+        <v>6392984</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6347201</v>
+        <v>6344748</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3072603</v>
+        <v>3066900</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3228864</v>
+        <v>3223465</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3137899</v>
+        <v>3140501</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3126070</v>
+        <v>3126050</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3211411</v>
+        <v>3212934</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3371733</v>
+        <v>3370771</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>3360753</v>
+        <v>3358193</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3358657</v>
+        <v>3352564</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6268395</v>
+        <v>6270333</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>6584508</v>
+        <v>6579492</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>6481913</v>
+        <v>6479529</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>6462045</v>
+        <v>6460782</v>
       </c>
     </row>
     <row r="24">
